--- a/data/tag_db.xlsx
+++ b/data/tag_db.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\git\HT-part-characterization\data\tag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Forward" sheetId="2" r:id="rId1"/>
@@ -63,68 +63,69 @@
     <t>GTAATGCCCACTT</t>
   </si>
   <si>
-    <t>M13F</t>
+    <t>Seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCATGTA</t>
+  </si>
+  <si>
+    <t>TTGTCTC</t>
+  </si>
+  <si>
+    <t>GTTCGAA</t>
+  </si>
+  <si>
+    <t>TGTCGAG</t>
+  </si>
+  <si>
+    <t>TAGGCTT</t>
+  </si>
+  <si>
+    <t>ACATAGG</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATGTACAGAGCAAGAGATTACGCGC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GTAAAACGACGGCCAGT</t>
-  </si>
-  <si>
-    <t>Seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CATGTACAGAGCAAGAGATTACGCGC</t>
-  </si>
-  <si>
-    <t>GCATGTA</t>
-  </si>
-  <si>
-    <t>TTGTCTC</t>
-  </si>
-  <si>
-    <t>GTTCGAA</t>
-  </si>
-  <si>
-    <t>TGTCGAG</t>
-  </si>
-  <si>
-    <t>TAGGCTT</t>
-  </si>
-  <si>
-    <t>ACATAGG</t>
-  </si>
-  <si>
-    <t>p15A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,8 +482,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -493,102 +578,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
